--- a/backtesting/excelStats/bought_stats.xlsx
+++ b/backtesting/excelStats/bought_stats.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,56 +591,56 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020-01-10/2020-01-27</t>
+          <t>1949-07-27/1953-09-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01686314788500091</v>
+        <v>0.01460818773072063</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01686314788500091</v>
+        <v>0.03386449276211241</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01686314788500091</v>
+        <v>0.05909690337651992</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01686314788500091</v>
+        <v>0.1235059498573763</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01686314788500091</v>
+        <v>0.5551128435420071</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01686314788500067</v>
+        <v>0.01460818773072062</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01686314788500067</v>
+        <v>0.03386449276211224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01686314788500067</v>
+        <v>0.05909690337651968</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01686314788500067</v>
+        <v>0.1235059498573749</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01686314788500067</v>
+        <v>0.5551128435420049</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.006651726214392749</v>
+        <v>0.01460818773072063</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.006651726214392749</v>
+        <v>0.03386449276211241</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.006651726214392749</v>
+        <v>0.05909690337651992</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.006651726214392749</v>
+        <v>0.1235059498573763</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.006651726214392749</v>
+        <v>0.5551128435420071</v>
       </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>1497</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -649,56 +649,56 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020-01-29/2020-01-31</t>
+          <t>1953-11-04/1953-11-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03710188752135127</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03710188752135127</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03710188752135127</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03710188752135127</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03710188752135127</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03710188752135146</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03710188752135146</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03710188752135146</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03710188752135146</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03710188752135146</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01462695797669514</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01462695797669514</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01462695797669514</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01462695797669514</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01462695797669514</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -707,56 +707,56 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020-02-05/2020-02-25</t>
+          <t>1953-11-06/1953-11-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04502289714547637</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04502289714547637</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04502289714547637</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04502289714547637</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04502289714547637</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04502289714547639</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04502289714547639</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04502289714547639</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04502289714547639</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04502289714547639</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06191879427976944</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.06191879427976944</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.06191879427976944</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06191879427976944</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06191879427976944</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020-02-27/2020-02-27</t>
+          <t>1953-11-10/1953-11-10</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -823,56 +823,56 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020-03-02/2020-03-03</t>
+          <t>1953-11-27/1956-05-23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03812868093353276</v>
+        <v>0.005677185341229004</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03812868093353276</v>
+        <v>0.05798865831403683</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03812868093353276</v>
+        <v>0.05068937582054278</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03812868093353276</v>
+        <v>0.1828872772420203</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03812868093353276</v>
+        <v>0.8256285781156726</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03812868093353266</v>
+        <v>0.005677185341229157</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03812868093353266</v>
+        <v>0.05798865831403695</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03812868093353266</v>
+        <v>0.05068937582054271</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03812868093353266</v>
+        <v>0.1828872772420203</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.03812868093353266</v>
+        <v>0.8256285781156745</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02810789612107589</v>
+        <v>0.005677185341229004</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.02810789612107589</v>
+        <v>0.05798865831403683</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02810789612107589</v>
+        <v>0.05068937582054278</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02810789612107589</v>
+        <v>0.1828872772420203</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.02810789612107589</v>
+        <v>0.8256285781156726</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>908</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -881,56 +881,56 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020-03-05/2020-03-05</t>
+          <t>1956-05-31/1956-06-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456561</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456561</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456561</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456561</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456561</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0.001327463988456659</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
@@ -939,56 +939,56 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020-03-25/2020-09-08</t>
+          <t>1956-06-12/1956-11-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1790164676687527</v>
+        <v>0.04788613441492123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4699535308969888</v>
+        <v>0.05888696087779507</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5396648522455059</v>
+        <v>0.02588439920493679</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9415361076916834</v>
+        <v>0.003451247741709123</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9415361076916834</v>
+        <v>0.003451247741709123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1790164676687524</v>
+        <v>0.0478861344149213</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4699535308969887</v>
+        <v>0.05888696087779471</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5396648522455061</v>
+        <v>0.02588439920493648</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9415361076916843</v>
+        <v>0.003451247741708611</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9415361076916843</v>
+        <v>0.003451247741708611</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1458982707314297</v>
+        <v>0.04788613441492123</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1938510402574228</v>
+        <v>0.05888696087779507</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2648814672027143</v>
+        <v>0.02588439920493679</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3458934580578455</v>
+        <v>0.003451247741709123</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3458934580578455</v>
+        <v>0.003451247741709123</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
@@ -997,56 +997,56 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020-09-10/2020-09-10</t>
+          <t>1956-11-05/1956-11-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087579</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087579</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087579</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087579</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087579</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0.01827728907087596</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
@@ -1055,56 +1055,56 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020-09-15/2020-09-16</t>
+          <t>1957-02-04/1957-08-14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03667933389309364</v>
+        <v>-0.006737014266437037</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03667933389309364</v>
+        <v>-0.0008982057472831953</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03667933389309364</v>
+        <v>0.04064678695056536</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03667933389309364</v>
+        <v>0.07073886396204937</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03667933389309364</v>
+        <v>0.02694814273153234</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03667933389309362</v>
+        <v>-0.006737014266437292</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.03667933389309362</v>
+        <v>-0.0008982057472827635</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03667933389309362</v>
+        <v>0.0406467869505656</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.03667933389309362</v>
+        <v>0.07073886396205056</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.03667933389309362</v>
+        <v>0.02694814273153347</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.004618946596211484</v>
+        <v>-0.006737014266437037</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004618946596211484</v>
+        <v>-0.0008982057472831953</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.004618946596211484</v>
+        <v>0.04064678695056536</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.004618946596211484</v>
+        <v>0.07073886396204937</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.004618946596211484</v>
+        <v>0.02694814273153234</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
@@ -1113,56 +1113,56 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020-09-28/2020-10-21</t>
+          <t>1958-04-21/1959-10-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0375715392960876</v>
+        <v>0.01444209008798951</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0375715392960876</v>
+        <v>0.0447239262822421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0375715392960876</v>
+        <v>0.06615420760305681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0375715392960876</v>
+        <v>0.1986955210496113</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0375715392960876</v>
+        <v>0.3263451717200224</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03757153929608766</v>
+        <v>0.01444209008798948</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03757153929608766</v>
+        <v>0.04472392628224157</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03757153929608766</v>
+        <v>0.06615420760305571</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03757153929608766</v>
+        <v>0.1986955210496104</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03757153929608766</v>
+        <v>0.326345171720019</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02505070965841438</v>
+        <v>0.01444209008798951</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02505070965841438</v>
+        <v>0.0447239262822421</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02505070965841438</v>
+        <v>0.06615420760305681</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02505070965841438</v>
+        <v>0.1986955210496113</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02505070965841438</v>
+        <v>0.3263451717200224</v>
       </c>
       <c r="Q13" t="n">
-        <v>23</v>
+        <v>528</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -1171,56 +1171,56 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2020-11-05/2020-11-10</t>
+          <t>1959-10-05/1959-10-05</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09816389872709856</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.09816389872709856</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09816389872709856</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09816389872709856</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09816389872709856</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09816389872709862</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.09816389872709862</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09816389872709862</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.09816389872709862</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.09816389872709862</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009993043231762755</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.009993043231762755</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009993043231762755</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.009993043231762755</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.009993043231762755</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -1229,56 +1229,56 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2020-11-12/2020-11-13</t>
+          <t>1959-10-13/1959-10-13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01187152640131111</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01187152640131111</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01187152640131111</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01187152640131111</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01187152640131111</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01187152640131112</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01187152640131112</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01187152640131112</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01187152640131112</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01187152640131112</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01361033540906346</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01361033540906346</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01361033540906346</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01361033540906346</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01361033540906346</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>1</v>
@@ -1287,56 +1287,56 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2020-11-17/2020-11-20</t>
+          <t>1959-10-19/1959-10-19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02492129248330963</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02492129248330963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02492129248330963</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02492129248330963</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02492129248330963</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02492129248330953</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.02492129248330953</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02492129248330953</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02492129248330953</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.02492129248330953</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0144035344802222</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0144035344802222</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0144035344802222</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0144035344802222</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.0144035344802222</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
@@ -1345,56 +1345,56 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2020-12-01/2020-12-01</t>
+          <t>1959-10-28/1959-11-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921786</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921786</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921786</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921786</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921786</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0.003480695546921773</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -1403,56 +1403,56 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2020-12-03/2020-12-03</t>
+          <t>1959-11-09/1959-11-12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211925</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211925</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211925</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211925</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0.005739162279211956</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1461,56 +1461,56 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2020-12-07/2020-12-09</t>
+          <t>1959-11-30/1960-03-01</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04968129169312734</v>
+        <v>0.02556626131907364</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04968129169312734</v>
+        <v>-0.04581328457223287</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04968129169312734</v>
+        <v>-0.036376097740034</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04968129169312734</v>
+        <v>-0.03894990571911365</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04968129169312734</v>
+        <v>-0.03894990571911365</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.04968129169312732</v>
+        <v>0.02556626131907367</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.04968129169312732</v>
+        <v>-0.04581328457223266</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.04968129169312732</v>
+        <v>-0.03637609774003379</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04968129169312732</v>
+        <v>-0.03894990571911338</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.04968129169312732</v>
+        <v>-0.03894990571911338</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.005184209141115605</v>
+        <v>0.02556626131907364</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.005184209141115605</v>
+        <v>-0.04581328457223287</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.005184209141115605</v>
+        <v>-0.036376097740034</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.005184209141115605</v>
+        <v>-0.03894990571911365</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.005184209141115605</v>
+        <v>-0.03894990571911365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
@@ -1519,56 +1519,56 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2020-12-15/2020-12-16</t>
+          <t>1960-04-04/1960-06-01</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.008831894547495042</v>
+        <v>-0.009002520557399104</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.008831894547495042</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.008831894547495042</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008831894547495042</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008831894547495042</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008831894547495032</v>
+        <v>-0.009002520557399004</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.008831894547495032</v>
+        <v>0.006301736916666898</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.008831894547495032</v>
+        <v>0.006301736916666898</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.008831894547495032</v>
+        <v>0.006301736916666898</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.008831894547495032</v>
+        <v>0.006301736916666898</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001772795166959137</v>
+        <v>-0.009002520557399104</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001772795166959137</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001772795166959137</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001772795166959137</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="P20" t="n">
-        <v>0.001772795166959137</v>
+        <v>0.00630173691666693</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -1577,56 +1577,56 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2020-12-18/2020-12-22</t>
+          <t>1960-06-07/1960-07-12</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004709625705176278</v>
+        <v>-0.003308351483533965</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004709625705176278</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0004709625705176278</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004709625705176278</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0004709625705176278</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004709625705175929</v>
+        <v>-0.003308351483534094</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0004709625705175929</v>
+        <v>-0.02054675777303508</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004709625705175929</v>
+        <v>-0.02054675777303508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0004709625705175929</v>
+        <v>-0.02054675777303508</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0004709625705175929</v>
+        <v>-0.02054675777303508</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.005971273832919248</v>
+        <v>-0.003308351483533965</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.005971273832919248</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.005971273832919248</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.005971273832919248</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.005971273832919248</v>
+        <v>-0.02054675777303515</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -1635,56 +1635,56 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021-01-06/2021-01-06</t>
+          <t>1960-08-15/1960-09-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834202</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834202</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834202</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834202</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834202</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-0.002119747934834378</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R22" t="n">
         <v>1</v>
@@ -1693,56 +1693,56 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021-01-08/2021-01-14</t>
+          <t>1960-11-11/1960-12-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005761842683805246</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.005761842683805246</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.005761842683805246</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.005761842683805246</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005761842683805246</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0057618426838051</v>
+        <v>-0.01020224996816473</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0057618426838051</v>
+        <v>-0.01020224996816473</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0057618426838051</v>
+        <v>-0.01020224996816473</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0057618426838051</v>
+        <v>-0.01020224996816473</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0057618426838051</v>
+        <v>-0.01020224996816473</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.007618910104622852</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.007618910104622852</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.007618910104622852</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.007618910104622852</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.007618910104622852</v>
+        <v>-0.01020224996816534</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
@@ -1751,56 +1751,56 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2021-01-21/2021-01-27</t>
+          <t>1960-12-08/1962-11-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.06848754574383541</v>
+        <v>0.04007123666707293</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.06848754574383541</v>
+        <v>0.09991089302230406</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06848754574383541</v>
+        <v>0.1298307551687278</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.06848754574383541</v>
+        <v>0.1912733316457629</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.06848754574383541</v>
+        <v>0.01727510916555895</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06848754574383521</v>
+        <v>0.04007123666707332</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.06848754574383521</v>
+        <v>0.09991089302230445</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.06848754574383521</v>
+        <v>0.1298307551687287</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.06848754574383521</v>
+        <v>0.1912733316457637</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.06848754574383521</v>
+        <v>0.01727510916556117</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.02655026952875634</v>
+        <v>0.04007123666707293</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.02655026952875634</v>
+        <v>0.09991089302230406</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.02655026952875634</v>
+        <v>0.1298307551687278</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.02655026952875634</v>
+        <v>0.1912733316457629</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.02655026952875634</v>
+        <v>0.01727510916555895</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>693</v>
       </c>
       <c r="R24" t="n">
         <v>1</v>
@@ -1809,56 +1809,56 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2021-02-03/2021-02-25</t>
+          <t>1962-11-26/1963-11-22</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01648130613418593</v>
+        <v>0.02705345226368958</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01648130613418593</v>
+        <v>0.07431547446602321</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01648130613418593</v>
+        <v>0.07431547446602321</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.01648130613418593</v>
+        <v>0.1411342233796178</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01648130613418593</v>
+        <v>0.1344524106573788</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01648130613418568</v>
+        <v>0.02705345226368977</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01648130613418568</v>
+        <v>0.07431547446602313</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.01648130613418568</v>
+        <v>0.07431547446602352</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01648130613418568</v>
+        <v>0.1411342233796187</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01648130613418568</v>
+        <v>0.1344524106573806</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0002166572244316429</v>
+        <v>0.02705345226368958</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0002166572244316429</v>
+        <v>0.07431547446602321</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0002166572244316429</v>
+        <v>0.07431547446602321</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.0002166572244316429</v>
+        <v>0.1411342233796178</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0002166572244316429</v>
+        <v>0.1344524106573788</v>
       </c>
       <c r="Q25" t="n">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="R25" t="n">
         <v>1</v>
@@ -1867,56 +1867,56 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2021-03-23/2021-03-24</t>
+          <t>1963-11-27/1966-12-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03272582785113178</v>
+        <v>0.03031145247621107</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03272582785113178</v>
+        <v>0.06726644443393166</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03272582785113178</v>
+        <v>0.07515571356644681</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03272582785113178</v>
+        <v>0.1150172672469723</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.03272582785113178</v>
+        <v>0.1083737277654628</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0327258278511317</v>
+        <v>0.03031145247621127</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0327258278511317</v>
+        <v>0.06726644443393195</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0327258278511317</v>
+        <v>0.07515571356644682</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0327258278511317</v>
+        <v>0.1150172672469726</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0327258278511317</v>
+        <v>0.1083737277654645</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.005467336018314979</v>
+        <v>0.03031145247621107</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.005467336018314979</v>
+        <v>0.06726644443393166</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.005467336018314979</v>
+        <v>0.07515571356644681</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.005467336018314979</v>
+        <v>0.1150172672469723</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.005467336018314979</v>
+        <v>0.1083737277654628</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="R26" t="n">
         <v>1</v>
@@ -1925,56 +1925,56 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2021-03-30/2021-04-30</t>
+          <t>1967-01-12/1967-11-03</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1905719469800593</v>
+        <v>0.04433313584740557</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1660803461433024</v>
+        <v>0.0538671963508383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1660803461433024</v>
+        <v>0.05803831372476281</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1660803461433024</v>
+        <v>0.1021332298987148</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1660803461433024</v>
+        <v>0.0937909042273263</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1905719469800594</v>
+        <v>0.04433313584740605</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1660803461433027</v>
+        <v>0.05386719635083863</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1660803461433027</v>
+        <v>0.05803831372476269</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1660803461433027</v>
+        <v>0.1021332298987149</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1660803461433027</v>
+        <v>0.09379090422732675</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06389212284697489</v>
+        <v>0.04433313584740557</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05623773106336715</v>
+        <v>0.0538671963508383</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05623773106336715</v>
+        <v>0.05803831372476281</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05623773106336715</v>
+        <v>0.1021332298987148</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05623773106336715</v>
+        <v>0.0937909042273263</v>
       </c>
       <c r="Q27" t="n">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="R27" t="n">
         <v>1</v>
@@ -1983,56 +1983,56 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2021-05-21/2021-07-15</t>
+          <t>1967-11-17/1967-11-20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2435521468776407</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2654026352915645</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2654026352915645</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2654026352915645</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2654026352915645</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2435521468776407</v>
+        <v>-0.0126050223313086</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2654026352915647</v>
+        <v>-0.0126050223313086</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2654026352915647</v>
+        <v>-0.0126050223313086</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2654026352915647</v>
+        <v>-0.0126050223313086</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2654026352915647</v>
+        <v>-0.0126050223313086</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00254828901350115</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04912820176611973</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04912820176611973</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04912820176611973</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="P28" t="n">
-        <v>0.04912820176611973</v>
+        <v>-0.01260502233130855</v>
       </c>
       <c r="Q28" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>1</v>
@@ -2041,56 +2041,56 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2021-07-30/2021-07-30</t>
+          <t>1967-11-22/1969-06-06</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.01655093857029956</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.0169780706031409</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-0.0257341550757306</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.0298985090949469</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.09044315090974724</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01655093857029949</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.01697807060314061</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.02573415507573097</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.02989850909494767</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.09044315090975001</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.01655093857029956</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.0169780706031409</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-0.0257341550757306</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.0298985090949469</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.09044315090974724</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="R29" t="n">
         <v>1</v>
@@ -2099,56 +2099,56 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2021-08-03/2021-08-17</t>
+          <t>1970-09-28/1971-07-30</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.01801653708579182</v>
+        <v>-0.005720454486767533</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01801653708579182</v>
+        <v>0.02407337093203538</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01801653708579182</v>
+        <v>0.07984741575297602</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01801653708579182</v>
+        <v>0.1911571038743247</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.01801653708579182</v>
+        <v>0.1390775552333225</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01801653708579199</v>
+        <v>-0.005720454486767475</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01801653708579199</v>
+        <v>0.02407337093203527</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01801653708579199</v>
+        <v>0.0798474157529762</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01801653708579199</v>
+        <v>0.1911571038743242</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.01801653708579199</v>
+        <v>0.1390775552333216</v>
       </c>
       <c r="L30" t="n">
-        <v>0.005636294570988864</v>
+        <v>-0.005720454486767533</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005636294570988864</v>
+        <v>0.02407337093203538</v>
       </c>
       <c r="N30" t="n">
-        <v>0.005636294570988864</v>
+        <v>0.07984741575297602</v>
       </c>
       <c r="O30" t="n">
-        <v>0.005636294570988864</v>
+        <v>0.1911571038743247</v>
       </c>
       <c r="P30" t="n">
-        <v>0.005636294570988864</v>
+        <v>0.1390775552333225</v>
       </c>
       <c r="Q30" t="n">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -2157,56 +2157,56 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2021-08-20/2021-09-17</t>
+          <t>1971-08-03/1971-08-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.05226091377625514</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05226091377625514</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05226091377625514</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05226091377625514</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05226091377625514</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05226091377625519</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05226091377625519</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05226091377625519</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05226091377625519</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05226091377625519</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.001954149599737922</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001954149599737922</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.001954149599737922</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.001954149599737922</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.001954149599737922</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
@@ -2215,56 +2215,56 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2021-09-24/2021-09-24</t>
+          <t>1971-08-17/1971-09-24</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-0.003300272114314412</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-0.003300272114314782</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240684</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240684</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240684</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240684</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.003300272114314412</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-0.01840180395240643</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R32" t="n">
         <v>1</v>
@@ -2273,56 +2273,56 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2021-10-15/2021-12-03</t>
+          <t>1971-10-04/1971-11-01</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3900833430907721</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4041147614612041</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4041147614612041</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4041147614612041</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4041147614612041</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3900833430907715</v>
+        <v>-0.06461038294393175</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4041147614612034</v>
+        <v>-0.06461038294393175</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4041147614612034</v>
+        <v>-0.06461038294393175</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4041147614612034</v>
+        <v>-0.06461038294393175</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4041147614612034</v>
+        <v>-0.06461038294393175</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0472964605761089</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01499765325531381</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01499765325531381</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01499765325531381</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01499765325531381</v>
+        <v>-0.06461038294393122</v>
       </c>
       <c r="Q33" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="R33" t="n">
         <v>1</v>
@@ -2331,56 +2331,56 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021-12-08/2021-12-09</t>
+          <t>1971-12-17/1973-12-03</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.04197825366347183</v>
+        <v>0.03121880297952733</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.04197825366347183</v>
+        <v>0.04757626711981383</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04197825366347183</v>
+        <v>0.07221222530927164</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.04197825366347183</v>
+        <v>0.0810891390404237</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04197825366347183</v>
+        <v>-0.06343507355714767</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.04197825366347186</v>
+        <v>0.03121880297952679</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.04197825366347186</v>
+        <v>0.0475762671198128</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.04197825366347186</v>
+        <v>0.07221222530927049</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.04197825366347186</v>
+        <v>0.08108913904042253</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.04197825366347186</v>
+        <v>-0.06343507355714835</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.00718108016989476</v>
+        <v>0.03121880297952733</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.00718108016989476</v>
+        <v>0.04757626711981383</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.00718108016989476</v>
+        <v>0.07221222530927164</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.00718108016989476</v>
+        <v>0.0810891390404237</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.00718108016989476</v>
+        <v>-0.06343507355714767</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>717</v>
       </c>
       <c r="R34" t="n">
         <v>1</v>
@@ -2389,56 +2389,56 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021-12-28/2021-12-30</t>
+          <t>1975-01-30/1975-01-30</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.02427270478771815</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02427270478771815</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.02427270478771815</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.02427270478771815</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02427270478771815</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02427270478771813</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02427270478771813</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.02427270478771813</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.02427270478771813</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.02427270478771813</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.001592051778918423</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.001592051778918423</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.001592051778918423</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.001592051778918423</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.001592051778918423</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>1</v>
@@ -2447,56 +2447,56 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2022-01-04/2022-01-04</t>
+          <t>1975-02-03/1975-09-15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.07812903951295012</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.03932147996136871</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.1464919245770328</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.130686175903721</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.06502181416649747</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.07812903951295008</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.0393214799613688</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.1464919245770329</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.1306861759037201</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.06502181416649658</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.07812903951295012</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.03932147996136871</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.1464919245770328</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.130686175903721</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.06502181416649747</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="R36" t="n">
         <v>1</v>
@@ -2505,56 +2505,56 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2022-02-09/2022-02-11</t>
+          <t>1975-09-19/1975-09-30</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.1032015973025207</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0367415345820367</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0367415345820367</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.0367415345820367</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0367415345820367</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.0367415345820367</v>
+        <v>-0.02340468760035901</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R37" t="n">
         <v>1</v>
@@ -2563,56 +2563,56 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2022-02-15/2022-02-18</t>
+          <t>1975-10-06/1976-11-03</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.1076806239609427</v>
+        <v>0.02612804263609289</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1076806239609427</v>
+        <v>-0.0006905796557376113</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1076806239609427</v>
+        <v>0.04627076887140193</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1076806239609427</v>
+        <v>0.1769107186059143</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1076806239609427</v>
+        <v>0.1731123548687227</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1076806239609428</v>
+        <v>0.02612804263609286</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.1076806239609428</v>
+        <v>-0.000690579655738412</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1076806239609428</v>
+        <v>0.0462707688714019</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.1076806239609428</v>
+        <v>0.1769107186059141</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.1076806239609428</v>
+        <v>0.1731123548687223</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.02733120077197687</v>
+        <v>0.02612804263609289</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.02733120077197687</v>
+        <v>-0.0006905796557376113</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.02733120077197687</v>
+        <v>0.04627076887140193</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.02733120077197687</v>
+        <v>0.1769107186059143</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.02733120077197687</v>
+        <v>0.1731123548687227</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="R38" t="n">
         <v>1</v>
@@ -2621,56 +2621,56 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2022-03-17/2022-04-06</t>
+          <t>1976-11-05/1976-11-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01449560652550901</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01449560652550901</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01449560652550901</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.01449560652550901</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.01449560652550901</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01449560652550936</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01449560652550936</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01449560652550936</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01449560652550936</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.01449560652550936</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01574913393321601</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01574913393321601</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01574913393321601</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01574913393321601</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01574913393321601</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>1</v>
@@ -2679,56 +2679,56 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2022-12-13/2022-12-15</t>
+          <t>1976-11-23/1976-11-23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.06197438236086441</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.06197438236086441</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06197438236086441</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.06197438236086441</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.06197438236086441</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.06197438236086449</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.06197438236086449</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.06197438236086449</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.06197438236086449</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.06197438236086449</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.03082355562147522</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.03082355562147522</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.03082355562147522</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.03082355562147522</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.03082355562147522</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>1</v>
@@ -2737,56 +2737,56 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2023-01-17/2023-02-21</t>
+          <t>1976-11-26/1976-11-30</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2429104788463519</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1668172998925272</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1668172998925272</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1668172998925272</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1668172998925272</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2429104788463519</v>
+        <v>-0.01017937989554355</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1668172998925273</v>
+        <v>-0.01017937989554355</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1668172998925273</v>
+        <v>-0.01017937989554355</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1668172998925273</v>
+        <v>-0.01017937989554355</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1668172998925273</v>
+        <v>-0.01017937989554355</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02491623393215629</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001596132577859943</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="N41" t="n">
-        <v>0.001596132577859943</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="O41" t="n">
-        <v>0.001596132577859943</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="P41" t="n">
-        <v>0.001596132577859943</v>
+        <v>-0.01017937989554349</v>
       </c>
       <c r="Q41" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
         <v>1</v>
@@ -2795,56 +2795,56 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2023-02-24/2023-04-12</t>
+          <t>1976-12-02/1976-12-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1501996069160176</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1380015339702826</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1380015339702826</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1380015339702826</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1380015339702826</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1501996069160177</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.138001533970283</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.138001533970283</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.138001533970283</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.138001533970283</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0002392799978156706</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.03070747672815997</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.03070747672815997</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03070747672815997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03070747672815997</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
@@ -2853,56 +2853,56 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2023-04-18/2023-04-20</t>
+          <t>1976-12-06/1979-10-19</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>0.01158752999156611</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.01622248305119209</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.02278872794503771</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.05668207083402339</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.01892621794784901</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>0.01158752999156642</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.0162224830511916</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.02278872794503738</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.05668207083402294</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.02034918618702648</v>
+        <v>-0.01892621794784904</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.006036308577072228</v>
+        <v>0.01158752999156611</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.006036308577072228</v>
+        <v>-0.01622248305119209</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.006036308577072228</v>
+        <v>-0.02278872794503771</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.006036308577072228</v>
+        <v>-0.05668207083402339</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.006036308577072228</v>
+        <v>-0.01892621794784901</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1047</v>
       </c>
       <c r="R43" t="n">
         <v>1</v>
@@ -2911,56 +2911,56 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2023-04-28/2023-06-29</t>
+          <t>1979-11-13/1980-03-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4035099704869494</v>
+        <v>0.04594905396695895</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5092556257911961</v>
+        <v>0.06780644610448787</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4712683130915853</v>
+        <v>0.1377501454135585</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4712683130915853</v>
+        <v>0.03468039256028067</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4712683130915853</v>
+        <v>0.03468039256028067</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4035099704869495</v>
+        <v>0.04594905396695868</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5092556257911962</v>
+        <v>0.0678064461044877</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4712683130915855</v>
+        <v>0.1377501454135586</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4712683130915855</v>
+        <v>0.03468039256028081</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4712683130915855</v>
+        <v>0.03468039256028081</v>
       </c>
       <c r="L44" t="n">
-        <v>0.008627026634555536</v>
+        <v>0.04594905396695895</v>
       </c>
       <c r="M44" t="n">
-        <v>0.05010940854973507</v>
+        <v>0.06780644610448787</v>
       </c>
       <c r="N44" t="n">
-        <v>0.05443363728826064</v>
+        <v>0.1377501454135585</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05443363728826064</v>
+        <v>0.03468039256028067</v>
       </c>
       <c r="P44" t="n">
-        <v>0.05443363728826064</v>
+        <v>0.03468039256028067</v>
       </c>
       <c r="Q44" t="n">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="R44" t="n">
         <v>1</v>
@@ -2969,56 +2969,56 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2023-07-03/2023-08-02</t>
+          <t>1980-03-12/1980-03-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0437602416373291</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0437602416373291</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0437602416373291</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0437602416373291</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0437602416373291</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04376024163732976</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04376024163732976</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04376024163732976</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04376024163732976</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04376024163732976</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01297253450064043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01297253450064043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01297253450064043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01297253450064043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01297253450064043</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
@@ -3027,56 +3027,56 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2023-08-22/2023-09-08</t>
+          <t>1980-05-08/1980-05-08</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.002019819347849466</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.002019819347849466</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.002019819347849466</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.002019819347849466</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.002019819347849466</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.002019819347849472</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.002019819347849472</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.002019819347849472</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.002019819347849472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.002019819347849472</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01594065772490563</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01594065772490563</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01594065772490563</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.01594065772490563</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01594065772490563</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>1</v>
@@ -3085,56 +3085,56 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2023-10-03/2023-10-03</t>
+          <t>1980-05-19/1981-05-05</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.07978084994305057</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.1334633880464456</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.167641899867366</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.2737995377438561</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.2103650927878093</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.07978084994305099</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.1334633880464466</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.1676418998673672</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.2737995377438574</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.2103650927878111</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.07978084994305057</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.1334633880464456</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>0.167641899867366</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>0.2737995377438561</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.2103650927878093</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="R47" t="n">
         <v>1</v>
@@ -3143,56 +3143,56 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2023-10-05/2023-10-17</t>
+          <t>1981-05-07/1981-05-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.01678303767606764</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01678303767606764</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.01678303767606764</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.01678303767606764</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01678303767606764</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01678303767606792</v>
+        <v>-0.01488563440673284</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.01678303767606792</v>
+        <v>-0.01488563440673284</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.01678303767606792</v>
+        <v>-0.01488563440673284</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.01678303767606792</v>
+        <v>-0.01488563440673284</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.01678303767606792</v>
+        <v>-0.01488563440673284</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02700918829099209</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02700918829099209</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02700918829099209</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02700918829099209</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="P48" t="n">
-        <v>0.02700918829099209</v>
+        <v>-0.01488563440673301</v>
       </c>
       <c r="Q48" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
         <v>1</v>
@@ -3201,56 +3201,56 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2023-11-03/2023-11-30</t>
+          <t>1981-05-15/1981-06-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.03921798811264564</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03921798811264564</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03921798811264564</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03921798811264564</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03921798811264564</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03921798811264571</v>
+        <v>-0.01172734412673986</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03921798811264571</v>
+        <v>-0.01172734412673986</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03921798811264571</v>
+        <v>-0.01172734412673986</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03921798811264571</v>
+        <v>-0.01172734412673986</v>
       </c>
       <c r="K49" t="n">
-        <v>0.03921798811264571</v>
+        <v>-0.01172734412673986</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04805957507831161</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04805957507831161</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="N49" t="n">
-        <v>0.04805957507831161</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="O49" t="n">
-        <v>0.04805957507831161</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="P49" t="n">
-        <v>0.04805957507831161</v>
+        <v>-0.01172734412673996</v>
       </c>
       <c r="Q49" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R49" t="n">
         <v>1</v>
@@ -3259,56 +3259,56 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2023-12-14/2024-01-03</t>
+          <t>1981-06-08/1981-06-18</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.01615304573085768</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01615304573085768</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01615304573085768</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.01615304573085768</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.01615304573085768</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.01615304573085759</v>
+        <v>-0.004537251048032199</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.01615304573085759</v>
+        <v>-0.004537251048032199</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.01615304573085759</v>
+        <v>-0.004537251048032199</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.01615304573085759</v>
+        <v>-0.004537251048032199</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.01615304573085759</v>
+        <v>-0.004537251048032199</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.003123125447073437</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.003123125447073437</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.003123125447073437</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.003123125447073437</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.003123125447073437</v>
+        <v>-0.004537251048032068</v>
       </c>
       <c r="Q50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R50" t="n">
         <v>1</v>
@@ -3317,56 +3317,56 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2024-01-08/2024-02-21</t>
+          <t>1981-06-22/1981-06-29</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3415305704069629</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2912558858882361</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2912558858882361</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2912558858882361</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2912558858882361</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3415305704069623</v>
+        <v>-0.0004546992041030746</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2912558858882354</v>
+        <v>-0.0004546992041030746</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2912558858882354</v>
+        <v>-0.0004546992041030746</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2912558858882354</v>
+        <v>-0.0004546992041030746</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2912558858882354</v>
+        <v>-0.0004546992041030746</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04860251359969987</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04581881622390124</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04581881622390124</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="O51" t="n">
-        <v>0.04581881622390124</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="P51" t="n">
-        <v>0.04581881622390124</v>
+        <v>-0.0004546992041029318</v>
       </c>
       <c r="Q51" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="R51" t="n">
         <v>1</v>
@@ -3375,58 +3375,2436 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2024-02-23/2024-03-25</t>
+          <t>1981-07-02/1981-08-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.19635901542744</v>
+        <v>0.01772387119181178</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2054057181065164</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2054057181065164</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2054057181065164</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2054057181065164</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1963590154274406</v>
+        <v>0.01772387119181148</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2054057181065169</v>
+        <v>0.01430345418703924</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2054057181065169</v>
+        <v>0.01430345418703924</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2054057181065169</v>
+        <v>0.01430345418703924</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2054057181065169</v>
+        <v>0.01430345418703924</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0285686953060787</v>
+        <v>0.01772387119181178</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02542645450496274</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="N52" t="n">
-        <v>0.02542645450496274</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="O52" t="n">
-        <v>0.02542645450496274</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02542645450496274</v>
+        <v>0.0143034541870395</v>
       </c>
       <c r="Q52" t="n">
+        <v>32</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>1981-08-06/1981-08-07</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.006709886864775607</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.006709886864775607</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.006709886864775607</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.006709886864775607</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.006709886864775607</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-0.006709886864775538</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>1981-08-11/1981-08-17</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.01964889624867495</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.01964889624867495</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.01964889624867495</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.01964889624867495</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.01964889624867495</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.01964889624867504</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>1982-05-12/1982-05-12</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>1982-08-24/1990-01-22</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.07334199563401526</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2035544314480538</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.163589102697869</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2830515991138394</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.864152659325207</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.07334199563401557</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.2035544314480548</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.1635891026978705</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2830515991138415</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.864152659325215</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.07334199563401526</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2035544314480538</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.163589102697869</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.2830515991138394</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.864152659325207</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2708</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>1990-03-02/1990-04-02</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01311317215364291</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01311317215364263</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0094176657973299</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0094176657973299</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0094176657973299</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0094176657973299</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01311317215364291</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.009417665797330143</v>
+      </c>
+      <c r="Q57" t="n">
         <v>31</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1990-04-04/1990-04-05</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.001055396978590646</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.001055396978590646</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.001055396978590646</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.001055396978590646</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.001055396978590646</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.001055396978590634</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>1990-04-10/1990-04-18</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.003946578403864854</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.003946578403864854</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.003946578403864854</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.003946578403864854</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.003946578403864854</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.003946578403864769</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>8</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>1990-05-09/1990-08-03</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.04622880120368468</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.04538303896914917</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.005833284971850056</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.005833284971850056</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.005833284971850056</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.04622880120368445</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.04538303896914857</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.005833284971849344</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.005833284971849344</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.005833284971849344</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.04622880120368468</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.04538303896914917</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.005833284971850056</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.005833284971850056</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.005833284971850056</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>86</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>1991-01-25/1991-11-19</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.08801733545870624</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1197071431308617</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.128485112431125</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1266700580130911</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1289909993714325</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.08801733545870623</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.1197071431308618</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1284851124311253</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1266700580130911</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1289909993714336</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.08801733545870624</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.1197071431308617</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.128485112431125</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.1266700580130911</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.1289909993714325</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>298</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>1991-12-16/1992-04-08</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.09444415118767009</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.07288149652503952</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05561048056494749</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.02611457308450518</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.02611457308450518</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0944441511876702</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.07288149652503938</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.05561048056494727</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.02611457308450469</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.02611457308450469</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.09444415118767009</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.07288149652503952</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.05561048056494749</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.02611457308450518</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.02611457308450518</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>114</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>1992-04-10/1992-06-18</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.02908797892476284</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01427190603705151</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.008236703899334039</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.008236703899334039</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.008236703899334039</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02908797892476334</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.01427190603705191</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.008236703899333397</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.008236703899333397</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.008236703899333397</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.02908797892476284</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.01427190603705151</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.008236703899334039</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.008236703899334039</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.008236703899334039</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>69</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>1992-06-22/1998-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01866633339917485</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.02838376891490339</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.04841348308078663</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.09390184793243406</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.464700111078236</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01866633339917503</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.02838376891490366</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.04841348308078724</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.09390184793243481</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.464700111078243</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01866633339917485</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.02838376891490339</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.04841348308078663</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.09390184793243406</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.464700111078236</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2262</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>1998-09-24/1998-09-24</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>1998-10-02/2001-01-02</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.09582093626446572</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1722322540552828</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2260423004203305</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2830341376832866</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2799422010570904</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.09582093626446581</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.1722322540552833</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.2260423004203311</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2830341376832882</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.2799422010570931</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.09582093626446572</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1722322540552828</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2260423004203305</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.2830341376832866</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.2799422010570904</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>823</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2002-01-07/2002-01-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2002-03-05/2002-03-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2002-03-07/2002-03-25</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.02217637669458314</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.02217637669458314</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.02217637669458314</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.02217637669458314</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.02217637669458314</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.02217637669458316</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>18</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2002-03-28/2002-04-02</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.009264508795703152</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.009264508795703152</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.009264508795703152</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.009264508795703152</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.009264508795703152</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-0.009264508795703223</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2002-10-02/2002-11-01</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.08823429019784539</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.08823429019784539</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.08823429019784539</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.08823429019784539</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.08823429019784539</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.08823429019784544</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>30</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2003-03-24/2003-03-24</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2003-04-15/2003-04-16</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.01223608226662907</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.01223608226662907</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.01223608226662907</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.01223608226662907</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.01223608226662907</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-0.01223608226662896</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2003-04-21/2007-08-03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.03521257923191266</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1162318713251022</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1135749559415963</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.1651438155521854</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.60655154415844</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03521257923191218</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.1162318713251016</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.1135749559415957</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.1651438155521865</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.6065515441584428</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.03521257923191266</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.1162318713251022</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1135749559415963</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.1651438155521854</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.60655154415844</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1565</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2007-08-07/2007-08-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.01611008093768415</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.01611008093768415</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.01611008093768415</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.01611008093768415</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.01611008093768415</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-0.01611008093768413</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2007-08-23/2007-08-28</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.02060855702457252</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.02060855702457252</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.02060855702457252</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.02060855702457252</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.02060855702457252</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-0.02060855702457265</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2007-08-30/2007-08-30</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2007-09-04/2007-09-07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.02408319618297322</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.02408319618297322</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.02408319618297322</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.02408319618297322</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.02408319618297322</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-0.02408319618297318</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2007-09-12/2007-11-07</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.06132266889644314</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.06132266889644289</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.002758933622673249</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.002758933622673249</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.002758933622673249</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.002758933622673249</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.06132266889644314</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.002758933622673376</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>56</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2007-12-06/2007-12-11</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.0196969111676757</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.0196969111676757</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.0196969111676757</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.0196969111676757</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.0196969111676757</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-0.01969691116767569</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2007-12-13/2007-12-14</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.01374626785493877</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.01374626785493877</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.01374626785493877</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.01374626785493877</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.01374626785493877</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-0.01374626785493873</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2007-12-26/2007-12-27</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.01428228981228935</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.01428228981228935</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.01428228981228935</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.01428228981228935</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.01428228981228935</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-0.01428228981228937</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2009-06-02/2009-06-22</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.05472406454839014</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.05472406454839014</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.05472406454839014</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.05472406454839014</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.05472406454839014</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="P83" t="n">
+        <v>-0.05472406454838998</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>20</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2009-06-25/2009-07-07</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.04262923527312795</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.04262923527312795</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.04262923527312795</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.04262923527312795</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.04262923527312795</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-0.04262923527312811</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>12</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2009-07-10/2009-07-10</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2009-07-14/2018-12-04</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1180009167671016</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.151119347296322</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1880573936902895</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2639979980167483</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.980725049175331</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.1180009167671019</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.1511193472963222</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1880573936902895</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.2639979980167487</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.980725049175311</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.1180009167671016</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.151119347296322</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.1880573936902895</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.2639979980167483</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.980725049175331</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3430</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2019-02-04/2020-03-03</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.01709433183276009</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.06160655951563059</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.08102029304005674</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.07603295670270981</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1022067063832959</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0170943318327599</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.06160655951563058</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.08102029304005647</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.07603295670270951</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.1022067063832964</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.01709433183276009</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.06160655951563059</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.08102029304005674</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.07603295670270981</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.1022067063832959</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>393</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-05/2020-03-05</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-28/2020-06-11</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.009119585900597816</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.009119585900597816</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.009119585900597816</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.009119585900597816</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.009119585900597816</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-0.009119585900597384</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>14</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15/2020-06-26</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.01876352476638939</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.01876352476638939</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.01876352476638939</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.01876352476638939</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.01876352476638939</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-0.0187635247663894</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>11</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-30/2023-10-20</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.04706976760301849</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1315102669640599</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.08106017676647567</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.1944237513060302</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.3625048311697148</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0470697676030184</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.1315102669640589</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.08106017676647506</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.1944237513060285</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.3625048311697151</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.04706976760301849</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.1315102669640599</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.08106017676647567</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.1944237513060302</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.3625048311697148</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1207</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-25/2023-10-25</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-03/2024-03-26</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.05421560675249947</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.08821942486343083</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1257015554768829</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2003837156672507</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.2003837156672507</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05421560675249906</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0882194248634301</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1257015554768818</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.2003837156672493</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2003837156672493</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.05421560675249947</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.08821942486343083</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.1257015554768829</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.2004984382492258</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.2004984382492258</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>144</v>
+      </c>
+      <c r="R93" t="n">
         <v>1</v>
       </c>
     </row>

--- a/backtesting/excelStats/bought_stats.xlsx
+++ b/backtesting/excelStats/bought_stats.xlsx
@@ -5766,10 +5766,10 @@
         <v>0.1257015554768829</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2003837156672507</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2003837156672507</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="G93" t="n">
         <v>0.05421560675249906</v>
@@ -5781,10 +5781,10 @@
         <v>0.1257015554768818</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2003837156672493</v>
+        <v>0.1939362841534937</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2003837156672493</v>
+        <v>0.1939362841534937</v>
       </c>
       <c r="L93" t="n">
         <v>0.05421560675249947</v>
@@ -5796,10 +5796,10 @@
         <v>0.1257015554768829</v>
       </c>
       <c r="O93" t="n">
-        <v>0.2004984382492258</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="P93" t="n">
-        <v>0.2004984382492258</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="Q93" t="n">
         <v>144</v>
